--- a/pub/vardefine.xlsx
+++ b/pub/vardefine.xlsx
@@ -36,9 +36,6 @@
     <t>class</t>
   </si>
   <si>
-    <t>value_c</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
@@ -52,6 +49,9 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>value</t>
   </si>
 </sst>
 </file>
@@ -890,7 +890,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -912,22 +912,22 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
